--- a/data/la_colorada.xlsx
+++ b/data/la_colorada.xlsx
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>7</v>
@@ -726,10 +726,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -988,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -1159,7 +1159,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>5</t>
@@ -1208,7 +1212,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>5</t>
@@ -1259,7 +1267,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1314,7 +1322,11 @@
           <t>18</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>7</t>
@@ -1401,10 +1413,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>2</t>
@@ -1564,7 +1580,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>3</t>
@@ -1613,7 +1633,11 @@
           <t>7</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>5</t>
@@ -1666,7 +1690,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>2</t>
@@ -1719,7 +1747,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>3</t>
